--- a/va_facility_data_2025-02-20/Carl Nunziato VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Carl%20Nunziato%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Carl Nunziato VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Carl%20Nunziato%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R79259402ee174e0baf6fdd25f29e96e3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re3f1ff36132b42b6aab59bbf5c034b73"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd1c63569d91e4ce7b95dbaec24b85fc0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R17d141843aee496ebcf9d4b290f34a80"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb3a9e808533447d89fca9ead7a86b378"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb33e67677fe44b57b471b32898c6abac"/>
   </x:sheets>
 </x:workbook>
 </file>
